--- a/admin/pay_sample.xlsx
+++ b/admin/pay_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>年級</t>
   </si>
@@ -59,7 +59,13 @@
     <t>現金繳費(設為1)</t>
   </si>
   <si>
+    <t>之後的欄位不會用到，可做各細項費用、說明等</t>
+  </si>
+  <si>
     <t>郵局學生代號為以班級座號為代表號，例 10120 表示1年1班20號學生。</t>
+  </si>
+  <si>
+    <t>年級、班級可以英文中文，但要在後台偏好設定相對應的數值。</t>
   </si>
   <si>
     <t>匯入時，可以多次匯入，但年級、班級、班級不可重覆。</t>
@@ -260,21 +266,22 @@
   </sheetPr>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="A2:L3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.84020618556701"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.4587628865979"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4587628865979"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1752577319588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8556701030928"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="1" width="11.4587628865979"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.4381443298969"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.4587628865979"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.87628865979382"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.319587628866"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9587628865979"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.319587628866"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.7010309278351"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.819587628866"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="1" width="11.319587628866"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.4123711340206"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.319587628866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,13 +300,13 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -311,10 +318,12 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="5"/>
     </row>
   </sheetData>
@@ -333,45 +342,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="A2:L3 D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.4587628865979"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
